--- a/stripped/S10100.mes.bin.xlsx
+++ b/stripped/S10100.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07DA62-1FE1-4E7E-90E6-A11DF3C918EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D19363-50A5-4EAE-B579-BF5B0B1937AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10100.mes.bin" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     <t>145</t>
   </si>
   <si>
-    <t>^Ogata-san-san...^</t>
+    <t>^Ogata-san...^</t>
   </si>
   <si>
     <t>147</t>

--- a/stripped/S10100.mes.bin.xlsx
+++ b/stripped/S10100.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D19363-50A5-4EAE-B579-BF5B0B1937AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC18CB-2027-482A-9B87-D4734CA72A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10100.mes.bin" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>147</t>
   </si>
   <si>
-    <t>Yayoi-san quietly interjects from behind Yuki-san.</t>
+    <t>Yayoi-san quietly interjects from behind Yuki.</t>
   </si>
   <si>
     <t>149</t>
@@ -793,7 +793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
